--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySpecificationWithSorting.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/AverageMarkBySpecificationWithSorting.xlsx
@@ -20,29 +20,28 @@
     <t>Average mark</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-Fourth</t>
+    <t>Fourth</t>
   </si>
   <si>
-    <t>4,14</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>3,75</t>
   </si>
   <si>
     <t>First</t>
   </si>
   <si>
-    <t>6,5</t>
+    <t>6,62</t>
   </si>
   <si>
     <t>Third</t>
   </si>
   <si>
     <t>6,83</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
